--- a/data/porcino +2000.xlsx
+++ b/data/porcino +2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\KCL\Thesis\R\Website\Fighting_for_our_lives_MA_Thesis\data\Porcino CLM 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\UCLM\Master\Clases\Seminario metodologia\Audiovisual\Web\Luchando_contra_futuras_pandemias\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3811EA-DE3B-42FD-8A09-B24E97411D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E29478-7DA6-4123-83FE-CFD49C2A6BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,16 +540,16 @@
     <t>YUNCLILLOS</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>Municipality</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
-    <t>Animals</t>
+    <t>Animales</t>
+  </si>
+  <si>
+    <t>Orientación</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Provincia</t>
   </si>
 </sst>
 </file>
@@ -877,24 +877,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">

--- a/data/porcino +2000.xlsx
+++ b/data/porcino +2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\UCLM\Master\Clases\Seminario metodologia\Audiovisual\Web\Luchando_contra_futuras_pandemias\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Victor\KCL\Thesis\R\Website\Fighting_for_our_lives_MA_Thesis\data\Porcino CLM 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E29478-7DA6-4123-83FE-CFD49C2A6BF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3811EA-DE3B-42FD-8A09-B24E97411D48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,16 +540,16 @@
     <t>YUNCLILLOS</t>
   </si>
   <si>
-    <t>Animales</t>
-  </si>
-  <si>
-    <t>Orientación</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
-  <si>
-    <t>Provincia</t>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Animals</t>
   </si>
 </sst>
 </file>
@@ -877,22 +877,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="16.8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
